--- a/Charts20160427w (Autosaved).xlsx
+++ b/Charts20160427w (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental variables" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,22 @@
     <sheet name="Model selection" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet7" sheetId="24" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="23" r:id="rId6"/>
-    <sheet name="Model selection-product" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="22" r:id="rId8"/>
-    <sheet name="H1 suitability" sheetId="9" r:id="rId9"/>
-    <sheet name="Slope-Aspect" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="13" r:id="rId12"/>
-    <sheet name="Significance" sheetId="8" r:id="rId13"/>
-    <sheet name="fig x significance" sheetId="19" r:id="rId14"/>
-    <sheet name="OLI bands" sheetId="15" r:id="rId15"/>
-    <sheet name="VegIndices" sheetId="16" r:id="rId16"/>
-    <sheet name="Steps" sheetId="14" r:id="rId17"/>
-    <sheet name="ENMTools" sheetId="17" r:id="rId18"/>
-    <sheet name="Figx final model" sheetId="18" r:id="rId19"/>
-    <sheet name="Sheet2" sheetId="20" r:id="rId20"/>
-    <sheet name="LayerContribution" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet8" sheetId="25" r:id="rId7"/>
+    <sheet name="Model selection-product" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="22" r:id="rId9"/>
+    <sheet name="H1 suitability" sheetId="9" r:id="rId10"/>
+    <sheet name="Slope-Aspect" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId13"/>
+    <sheet name="Significance" sheetId="8" r:id="rId14"/>
+    <sheet name="fig x significance" sheetId="19" r:id="rId15"/>
+    <sheet name="OLI bands" sheetId="15" r:id="rId16"/>
+    <sheet name="VegIndices" sheetId="16" r:id="rId17"/>
+    <sheet name="Steps" sheetId="14" r:id="rId18"/>
+    <sheet name="ENMTools" sheetId="17" r:id="rId19"/>
+    <sheet name="Figx final model" sheetId="18" r:id="rId20"/>
+    <sheet name="Sheet2" sheetId="20" r:id="rId21"/>
+    <sheet name="LayerContribution" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="430">
   <si>
     <t>Layer</t>
   </si>
@@ -1448,6 +1449,75 @@
       </rPr>
       <t xml:space="preserve"> AUC</t>
     </r>
+  </si>
+  <si>
+    <t>Acronym</t>
+  </si>
+  <si>
+    <t>Name of layer</t>
+  </si>
+  <si>
+    <t>Digital elevation model</t>
+  </si>
+  <si>
+    <t>Aspect - slope combination</t>
+  </si>
+  <si>
+    <t>Landsat band 4</t>
+  </si>
+  <si>
+    <t>Landsat band 5</t>
+  </si>
+  <si>
+    <t>Landsat band 6</t>
+  </si>
+  <si>
+    <t>Direction of roads</t>
+  </si>
+  <si>
+    <t>Nomalized difference vegetation index</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Renormalized difference vegetation index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope </t>
+  </si>
+  <si>
+    <t>Tassled cap transformation 4</t>
+  </si>
+  <si>
+    <t>Tassled cap transformation 5</t>
+  </si>
+  <si>
+    <t>Tassled cap transformation 6</t>
+  </si>
+  <si>
+    <t>Tassled cap transformation for brightness</t>
+  </si>
+  <si>
+    <t>Tassled cap transformation for greenness</t>
+  </si>
+  <si>
+    <t>Tassled cap transformation for wetness</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>Variable type</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Categorical</t>
   </si>
 </sst>
 </file>
@@ -2704,11 +2774,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="445950880"/>
-        <c:axId val="445951272"/>
+        <c:axId val="162099296"/>
+        <c:axId val="460594016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445950880"/>
+        <c:axId val="162099296"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2751,7 +2821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445951272"/>
+        <c:crossAx val="460594016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2759,7 +2829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445951272"/>
+        <c:axId val="460594016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.98"/>
@@ -2812,7 +2882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445950880"/>
+        <c:crossAx val="162099296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2826,7 +2896,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4038,6 +4107,188 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13">
+        <v>13</v>
+      </c>
+      <c r="D10" s="13">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13">
+        <v>17</v>
+      </c>
+      <c r="H10" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="16">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4135,11 +4386,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4185,7 +4436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -4399,7 +4650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4538,7 +4789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -4691,7 +4942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4834,7 +5085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
@@ -5252,7 +5503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5295,7 +5546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -5638,51 +5889,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="22">
-        <v>0.89880000000000004</v>
-      </c>
-      <c r="C5" s="22">
-        <v>0.80049999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="B6" s="22">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0.87619999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
@@ -5853,6 +6059,51 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.80049999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.87619999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
@@ -13305,8 +13556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16479,9 +16730,338 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="A1:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:G64"/>
     </sheetView>
   </sheetViews>
@@ -19194,7 +19774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
@@ -19725,7 +20305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -19875,186 +20455,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>11</v>
-      </c>
-      <c r="B10" s="13">
-        <v>12</v>
-      </c>
-      <c r="C10" s="13">
-        <v>13</v>
-      </c>
-      <c r="D10" s="13">
-        <v>14</v>
-      </c>
-      <c r="E10" s="13">
-        <v>15</v>
-      </c>
-      <c r="F10" s="13">
-        <v>16</v>
-      </c>
-      <c r="G10" s="13">
-        <v>17</v>
-      </c>
-      <c r="H10" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="16">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>